--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,57 +413,61 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>29/12/2020 01:30pm-01:45pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>28/12/20 12:00pm-2:00pm</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
+          <t>26/12/20 9:00am-11:00am</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -471,144 +475,338 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 1:30pm-1:45pm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>30/12/20 6:15am-6:30am</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am- 12:15pm</t>
+          <t>29/12/2020 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>30/12/2020 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/20 2pm-5:00pm</t>
+          <t>30/12/2020 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>30/12/2020 6:00pm-6:15pm</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Mentone</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>29/12/2020 07:30am-08:00am</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Mentone</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>31/12/2020 08:00am-08:30am</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Mentone</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mentone/Parkdale Beach</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>30/12/20 10:45am- 12:15pm</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>23/12/20 8:00am-2:00pm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>28/12/20 2:00pm-5:00pm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mount Waverley</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>21/12/2020 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Case shopped for half an hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>30/12/2020 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -741,7 +741,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21/12/2020 2:00pm-2:30pm</t>
+          <t>30/12/2020 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,168 +391,168 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>30/12/20 5:30pm-5:55pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Box Hill South</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>29/12/2020 01:30pm-01:45pm</t>
+          <t>30/12/20 12:00pm-12:40pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>30/12/20 11.40am-1.40pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>29/12/20 01:30pm-01:45pm</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>28/12/20 12:00pm-2:00pm</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/12/2020 11:15am-12:15pm</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Case hired a boat</t>
-        </is>
-      </c>
+          <t>28/12/20 1:30pm-1:45pm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30/12/2020 5:00pm-6:30pm</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -564,17 +564,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30/12/2020 11:15am-11:20am</t>
+          <t>29/12/2020 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -586,56 +586,56 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30/12/2020 6:00pm-6:15pm</t>
+          <t>30/12/2020 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/2020 07:30am-08:00am</t>
+          <t>30/12/2020 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>31/12/2020 08:00am-08:30am</t>
+          <t>30/12/2020 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -652,30 +652,34 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>29/12/2020 07:30am-08:00am</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am- 12:15pm</t>
+          <t>31/12/2020 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -687,126 +691,166 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Case attended course</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>28/12/20 2:00pm-5:00pm</t>
+          <t>30/12/20 10:45am- 12:15pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/2020 2:00pm-2:30pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30/12/2020 11:00am-11:30am</t>
+          <t>28/12/20 2:00pm-5:00pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>30/12/2020 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Case shopped for half an hour</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30/12/2020 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,101 +435,105 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>30/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/12/20 01:30pm-01:45pm</t>
+          <t>30/12/20 11.40am-1.40pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>29/12/20 01:30pm-01:45pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>28/12/20 12:00pm-2:00pm</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
+          <t>26/12/20 9:00am-11:00am</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -537,44 +541,40 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 1:30pm-1:45pm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>29/12/2020 11:15am-12:15pm</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -586,17 +586,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30/12/2020 5:00pm-6:30pm</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -608,17 +608,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/12/2020 11:15am-11:20am</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
@@ -630,34 +630,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30/12/2020 6:00pm-6:15pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/12/2020 07:30am-08:00am</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>31/12/2020 08:00am-08:30am</t>
+          <t>29/12/20 07:30am-08:00am</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -696,57 +696,57 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>31/12/20 08:00am-08:30am</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am- 12:15pm</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>30/12/20 10:45am- 12:15pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/12/20 2:00pm-5:00pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -775,44 +775,44 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>30/12/2020 2:00pm-2:30pm</t>
+          <t>28/12/20 2:00pm-5:00pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>30/12/2020 11:00am-11:30am</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
@@ -824,33 +824,55 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>30/12/20 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/20 01:30pm-01:45pm</t>
+          <t>29/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28/12/20 2:00pm-5:00pm</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,61 +391,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Black Rock</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30/12/20 5:30pm-5:55pm</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Case shopped</t>
-        </is>
-      </c>
+          <t>30/12/20 10:45am- 12:15pm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Box Hill South</t>
+          <t>Bentleigh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
+          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/12/20 12:00pm-12:40pm</t>
+          <t>22/12/20 12:00pm-12:30pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
+          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 2:30pm-2:45pm</t>
+          <t>30/12/20 5:30pm-5:55pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -457,119 +445,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Box Hill South</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>30/12/20 12:00pm-12:40pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Brighton Beach  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/20 2:00pm-2:30pm</t>
+          <t>29/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>30/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>30/12/20 11.40am-1.40pm</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>29/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Angus and Cootes Jeweller  Southland Shopping Centre, 2096/1239 Nepean Hwy, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
+          <t>28/12/2020 2:30pm-2:50pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -581,127 +577,119 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>22/12/2020 3:50pm-4:05pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>22/12/2020 3:30pm-3:50pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 1:30pm-1:45pm</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -713,145 +701,149 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>29/12/20 11:15am-12:15pm</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Case hired a boat</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am- 12:15pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>29/12/20 07:30am-08:00am</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
+          <t>27/12/20 10:00am-4:30pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -859,20 +851,192 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Mentone</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23/12/20 2:45pm-3:05pm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>30/12/20 10:45am- 12:15pm</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>30/12/20 4:00m- 5:50pm</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>23/12/20 8:00am-2:00pm</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>28/12/20 12:00pm-6:00pm</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mount Waverley</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>30/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Case shopped for half an hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>30/12/20 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,49 +391,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am- 12:15pm</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>Bentleigh</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>22/12/20 12:00pm-12:30pm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bentleigh</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
+          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22/12/20 12:00pm-12:30pm</t>
+          <t>30/12/20 5:30pm-5:55pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Black Rock</t>
+          <t>Box Hill South</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
+          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 5:30pm-5:55pm</t>
+          <t>30/12/20 12:00pm-12:40pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -445,88 +457,88 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Box Hill South</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
+          <t>Brighton Beach  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/12/20 12:00pm-12:40pm</t>
+          <t>29/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brighton Beach  Brighton, VIC 3186</t>
+          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-3:00pm</t>
+          <t>30/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended beach</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/12/20 2:30pm-2:45pm</t>
+          <t>30/12/20 11.40am-1.40pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>29/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -538,12 +550,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>29/12/20 2:00pm-2:30pm</t>
+          <t>28/12/2020 2:30pm-2:50pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -560,12 +572,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Angus and Cootes Jeweller  Southland Shopping Centre, 2096/1239 Nepean Hwy, Cheltenham VIC 3192</t>
+          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/2020 2:30pm-2:50pm</t>
+          <t>22/12/2020 3:50pm-4:05pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -582,12 +594,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22/12/2020 3:50pm-4:05pm</t>
+          <t>22/12/2020 3:30pm-3:50pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -599,61 +611,57 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22/12/2020 3:30pm-3:50pm</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
+          <t>28/12/20 1:30pm-1:45pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -661,40 +669,44 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>30/12/20 6:15am-6:30am</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -706,17 +718,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
@@ -728,17 +740,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
@@ -750,34 +762,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>29/12/20 07:30am-08:00am</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -799,7 +811,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -816,19 +828,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -838,30 +846,34 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>23/12/20 2:45pm-3:05pm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
+          <t>30/12/20 10:45am-12:15pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -883,7 +895,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am- 12:15pm</t>
+          <t>30/12/20 4:00m- 5:50pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -895,22 +907,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
@@ -927,7 +939,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -939,44 +951,44 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>30/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case shopped for 30 minutes</t>
         </is>
       </c>
     </row>
@@ -988,55 +1000,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Case shopped for 30 minutes</t>
-        </is>
-      </c>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Wonthaggi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Wonthaggi</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,12 +572,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22/12/2020 3:50pm-4:05pm</t>
+          <t>22/12/20 6.45pm - 7pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -594,12 +594,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22/12/2020 3:30pm-3:50pm</t>
+          <t>03/01/21, 3.30pm - 3.45pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -611,75 +611,83 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Coles, Westfield Southland</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>22/12/20 11:50am-12:10pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>22/12/2020 3:50pm-4:05pm</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>22/12/20 6.30pm - 6.45pm</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
+          <t>28/12/20 2.30pm-3pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -691,189 +699,185 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>22/12/2020 3:30pm-3:50pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Specsavers, 1004-1005 Westfield Southland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>22/12/20 11:00am-1145am</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Dandenong</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Kmart - Clayton Plaza, 2107 Dandenong Rd</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>30/12/20 7pm - 7.30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Dandenong</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Woolworths - Clayton Plaza, 2107 Dandenong Rd</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>30/12/20 7.30pm - 745pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>31/12/20 2pm - 3pm</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Case shopped at store</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 1:30pm-1:45pm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -885,148 +889,386 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
+          <t>29/12/20 07:30am-08:00am</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>31/12/20 08:00am-08:30am</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>Mentone</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mentone/Parkdale Beach</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mentone</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>23/12/20 2:45pm-3:05pm</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>30/12/20 10:45am-12:15pm</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>30/12/20 4:00m- 5:50pm</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>23/12/20 8:00am-2:00pm</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>28/12/20 12:00pm-6:00pm</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mount Martha</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>31/12/20 3pm - 3.15pm</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Takeaway coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mount Waverley</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>30/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Case shopped for half an hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>30/12/20 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>29/12/20 4pm - 6pm</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Case shopped at store and dined at cafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,7 +467,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-3:00pm</t>
+          <t>26/12/20 12:00pm-1:00pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -479,61 +479,61 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
+          <t>Brighton Beach  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30/12/20 2:30pm-2:45pm</t>
+          <t>29/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Burwood East</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>28/12/20 6.30pm - 7pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Burwood East</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Kmart Burwood, 172 Burwood Highway</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/12/20 2:00pm-2:30pm</t>
+          <t>28/12/20 6.15pm - 6.30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,17 +545,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
+          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/12/2020 2:30pm-2:50pm</t>
+          <t>28/12/20 12pm - 12.30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -567,44 +567,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
+          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>22/12/20 6.45pm - 7pm</t>
+          <t>30/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>03/01/21, 3.30pm - 3.45pm</t>
+          <t>30/12/20 11.40am-1.40pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coles, Westfield Southland</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22/12/20 11:50am-12:10pm</t>
+          <t>29/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>22/12/2020 3:50pm-4:05pm</t>
+          <t>28/12/2020 2:30pm-2:50pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22/12/20 6.30pm - 6.45pm</t>
+          <t>22/12/20 6.45pm - 7pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/20 2.30pm-3pm</t>
+          <t>03/01/21, 3.30pm - 3.45pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Coles, Westfield Southland</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22/12/2020 3:30pm-3:50pm</t>
+          <t>22/12/20 11:50am-12:10pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -726,290 +726,290 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Specsavers, 1004-1005 Westfield Southland</t>
+          <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22/12/20 11:00am-1145am</t>
+          <t>22/12/20 12.15pm - 12.45pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dandenong</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kmart - Clayton Plaza, 2107 Dandenong Rd</t>
+          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/20 7pm - 7.30pm</t>
+          <t>22/12/2020 3:50pm-4:05pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dandenong</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Woolworths - Clayton Plaza, 2107 Dandenong Rd</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30/12/20 7.30pm - 745pm</t>
+          <t>22/12/20 6.30pm - 6.45pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>28/12/20 2.30pm-3pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>22/12/2020 3:30pm-3:50pm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/20 2pm - 3pm</t>
+          <t>22/12/20 10.30am - 11am</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Specsavers, 1004-1005 Westfield Southland</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>22/12/20 11:00am-1145am</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Kmart - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
+          <t>30/12/20 7pm - 7.30pm</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>30/12/20 7.30pm - 745pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Case picked up takeaway</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>31/12/20 2pm - 3pm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 1:30pm-1:45pm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1021,79 +1021,83 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>29/12/20 11:15am-12:15pm</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Case hired a boat</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1105,170 +1109,342 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>23/12/2- 11:00pm-11:30pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case attended Federation Square</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>23/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/20 3pm - 3.15pm</t>
+          <t>29/12/20 07:30am-08:00am</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Takeaway coffee</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Case shopped for 30 minutes</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>23/12/20 2:45pm-3:05pm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>29/12/20 4pm - 6pm</t>
+          <t>30/12/20 10:45am-12:15pm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Case shopped at store and dined at cafe</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Moorabbin</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>30/12/20 4:00m- 5:50pm</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>23/12/20 8:00am-2:00pm</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Mordialloc</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>28/12/20 12:00pm-6:00pm</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Case attended course</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Mount Martha</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>31/12/20 3pm - 3.15pm</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Takeaway coffee</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mount Waverley</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>30/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Case shopped for half an hour</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>30/12/20 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>29/12/20 4pm - 6pm</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Case shopped at store and dined at cafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,124 +919,124 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Emerald</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>31/12/20 3:00pm - 5:00pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case vistied venue</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>28/12/20 12:00pm-2:00pm</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/20 2pm - 3pm</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Case shopped at store</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>31/12/20 2pm - 3pm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Case shopped at store</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 1:30pm-1:45pm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -1048,17 +1048,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -1070,17 +1070,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
@@ -1092,61 +1092,61 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>23/12/2- 11:00pm-11:30pm</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Case attended Federation Square</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23/12/20 11:00am-11:30am</t>
+          <t>23/12/2- 11:00pm-11:30pm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended Federation Square</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
+          <t>23/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
+          <t>29/12/20 07:30am-08:00am</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1202,15 +1202,19 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>31/12/20 08:00am-08:30am</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1220,34 +1224,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
+          <t>23/12/20 2:45pm-3:05pm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>30/12/20 10:45am-12:15pm</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1281,22 +1281,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>30/12/20 4:00m- 5:50pm</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1325,66 +1325,66 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>31/12/20 3pm - 3.15pm</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Takeaway coffee</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>31/12/20 3pm - 3.15pm</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
@@ -1396,55 +1396,77 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>30/12/20 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>29/12/20 4pm - 6pm</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Case shopped at store and dined at cafe</t>
-        </is>
-      </c>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>29/12/20 4pm - 6pm</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Case shopped at store and dined at cafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,22 +875,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Chirnside Park</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Kmart - M-City, 2107 Dandenong Road, Clayton</t>
+          <t>Woolworths  239-241 Maroondah Hwy, Chirnside Park</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>30/12/20 7pm - 7.30pm</t>
+          <t>31/12/2020 10:00am - 10:15am</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped at venue</t>
         </is>
       </c>
     </row>
@@ -902,12 +902,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
+          <t>Kmart - 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30/12/20 7.30pm - 745pm</t>
+          <t>30/12/20 7pm - 7.30pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -919,168 +919,168 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Emerald</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
+          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/20 3:00pm - 5:00pm</t>
+          <t>30/12/20 7.30pm - 745pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case vistied venue</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Emerald</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>31/12/20 3:00pm - 5:00pm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>28/12/20 12:00pm-2:00pm</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/20 2pm - 3pm</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Case shopped at store</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>31/12/20 2pm-3pm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Case shopped at store</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 1:30pm-1:45pm</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Sikh Temple Keysborough  200 Perry Road, Keysborough</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>1/01/21 2:00pm-5:00pm</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
@@ -1092,17 +1092,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -1114,56 +1114,56 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>23/12/2- 11:00pm-11:30pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case attended Federation Square</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>23/12/20 11:00am-11:30am</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1175,22 +1175,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
+          <t>23/12/2- 11:00pm-11:30pm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended Federation Square</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
+          <t>23/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1224,15 +1224,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>29/12/20 07:30am-08:00am</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1242,12 +1246,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1259,39 +1263,35 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>23/12/20 2:45pm-3:05pm</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1303,170 +1303,214 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>30/12/20 10:45am-12:15pm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>30/12/20 4:00m- 5:50pm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>31/12/20 3pm - 3.15pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Takeaway coffee</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
+          <t>31/12/20 3pm - 3.15pm</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>30/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Case shopped for half an hour</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>29/12/20 4pm - 6pm</t>
+          <t>30/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Case shopped at store and dined at cafe</t>
+          <t>Case shopped for 30 minutes</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>29/12/20 4pm - 6pm</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Case shopped at store and dined at cafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,39 +391,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bentleigh</t>
+          <t>Bayside</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
+          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22/12/20 12:00pm-12:30pm</t>
+          <t>31/12/20  3.00pm-3.15pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Black Rock</t>
+          <t>Bentleigh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
+          <t>Coles - Bentleigh  5/7 Vickery St, Bentleigh</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/12/20 5:30pm-5:55pm</t>
+          <t>24/12/20 12:30pm-1:00pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -435,127 +435,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Box Hill South</t>
+          <t>Bentleigh</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
+          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 12:00pm-12:40pm</t>
+          <t>22/12/20 12:00pm-12:30pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brighton Beach  Brighton, VIC 3186</t>
+          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26/12/20 12:00pm-1:00pm</t>
+          <t>30/12/20 5:30pm-5:55pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case attended beach</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Box Hill South</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brighton Beach  Brighton, VIC 3186</t>
+          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-3:00pm</t>
+          <t>30/12/20 12:00pm-12:40pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended beach</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Burwood East</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
+          <t>Brighton Beach  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/12/20 6.30pm - 7pm</t>
+          <t>26/12/20 12:00pm-1:00pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Burwood East</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kmart Burwood, 172 Burwood Highway</t>
+          <t>Brighton Beach  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28/12/20 6.15pm - 6.30pm</t>
+          <t>29/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Burwood East</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
+          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/12/20 12pm - 12.30pm</t>
+          <t>28/12/20 6.30pm - 7pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -567,88 +567,88 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Burwood East</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
+          <t>Kmart Burwood, 172 Burwood Highway</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30/12/20 2:30pm-2:45pm</t>
+          <t>28/12/20 6.15pm - 6.30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>28/12/20 12pm - 12.30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/20 2:00pm-2:30pm</t>
+          <t>30/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28/12/2020 2:30pm-2:50pm</t>
+          <t>30/12/20 11.40am-1.40pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>22/12/20 6.45pm - 7pm</t>
+          <t>29/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
+          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>03/01/21, 3.30pm - 3.45pm</t>
+          <t>28/12/2020 2:30pm-2:50pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coles, Westfield Southland</t>
+          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22/12/20 11:50am-12:10pm</t>
+          <t>22/12/20 6.45pm - 7pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -726,17 +726,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
+          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22/12/20 12.15pm - 12.45pm</t>
+          <t>30/12/21, 3.30pm - 3.45pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Coles, Westfield Southland</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22/12/2020 3:50pm-4:05pm</t>
+          <t>22/12/20 11:50am-12:10pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -770,17 +770,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22/12/20 6.30pm - 6.45pm</t>
+          <t>22/12/20 12.15pm - 12.45pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
@@ -792,12 +792,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28/12/20 2.30pm-3pm</t>
+          <t>22/12/2020 3:50pm-4:05pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -814,12 +814,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22/12/2020 3:30pm-3:50pm</t>
+          <t>22/12/20 6.30pm - 6.45pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22/12/20 10.30am - 11am</t>
+          <t>28/12/20 2.30pm-3pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -858,12 +858,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Specsavers, 1004-1005 Westfield Southland</t>
+          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22/12/20 11:00am-1145am</t>
+          <t>22/12/2020 3:30pm-3:50pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -875,167 +875,171 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chirnside Park</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Woolworths  239-241 Maroondah Hwy, Chirnside Park</t>
+          <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/2020 10:00am - 10:15am</t>
+          <t>22/12/20 10.30am - 11am</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case shopped at venue</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Kmart - 2107 Dandenong Road, Clayton</t>
+          <t>Specsavers, 1004-1005 Westfield Southland</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30/12/20 7pm - 7.30pm</t>
+          <t>22/12/20 11:00am-1145am</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Chirnside Park</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
+          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/12/20 7.30pm - 745pm</t>
+          <t>31/12/2020 10:00am - 10:15am</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped at venue</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Emerald</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
+          <t>Kmart - 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>31/12/20 3:00pm - 5:00pm</t>
+          <t>30/12/20 7pm - 7.30pm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>30/12/20 7.30pm - 745pm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Emerald</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>31/12/20 3:00pm - 5:00pm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Case visited venue</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/20 2pm-3pm</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28/12/20 1:30pm-1:45pm</t>
+          <t>26/12/20 9:00am-11:00am</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1043,88 +1047,84 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
+          <t>31/12/20 2pm-3pm</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sikh Temple Keysborough  200 Perry Road, Keysborough</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1/01/21 2:00pm-5:00pm</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Case visited venue</t>
-        </is>
-      </c>
+          <t>28/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Keysborough</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Sikh Temple Keysborough  200 Perry Road, Keysborough</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>1/01/21 2:00pm-5:00pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -1158,56 +1158,56 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>23/12/2- 11:00pm-11:30pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Case attended Federation Square</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>23/12/20 11:00am-11:30am</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1219,22 +1219,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
+          <t>23/12/2- 11:00pm-11:30pm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended Federation Square</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
+          <t>23/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1268,15 +1268,19 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>29/12/20 07:30am-08:00am</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1286,12 +1290,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1303,39 +1307,35 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>23/12/20 2:45pm-3:05pm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1347,170 +1347,214 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>30/12/20 10:45am-12:15pm</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>30/12/20 4:00m- 5:50pm</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>31/12/20 3pm - 3.15pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Takeaway coffee</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
+          <t>31/12/20 3pm - 3.15pm</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>30/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Case shopped for half an hour</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Springvale</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>29/12/20 4pm - 6pm</t>
+          <t>30/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Case shopped at store and dined at cafe</t>
+          <t>Case shopped for 30 minutes</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>Oakleigh</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Springvale</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>IKEA Springvale, 917 Princes Hwy</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>29/12/20 4pm - 6pm</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Case shopped at store and dined at cafe</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -391,17 +391,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bayside</t>
+          <t>Bentleigh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
+          <t>Coles - Bentleigh  5/7 Vickery St, Bentleigh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>31/12/20  3.00pm-3.15pm</t>
+          <t>24/12/20 12:30pm-1:00pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -418,56 +418,56 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coles - Bentleigh  5/7 Vickery St, Bentleigh</t>
+          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24/12/20 12:30pm-1:00pm</t>
+          <t>22/12/20 12:00pm-12:30pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bentleigh</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
+          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22/12/20 12:00pm-12:30pm</t>
+          <t>30/12/20 5:30pm-5:55pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Black Rock</t>
+          <t>Box Hill South</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
+          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/12/20 5:30pm-5:55pm</t>
+          <t>30/12/20 12:00pm-12:40pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -479,22 +479,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Box Hill South</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
+          <t>Brighton Beach  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>30/12/20 12:00pm-12:40pm</t>
+          <t>26/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>26/12/20 12:00pm-1:00pm</t>
+          <t>29/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,22 +523,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Burwood East</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Brighton Beach  Brighton, VIC 3186</t>
+          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-3:00pm</t>
+          <t>28/12/20 6.30pm - 7pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Case attended beach</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -550,12 +550,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
+          <t>Kmart Burwood, 172 Burwood Highway</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/12/20 6.30pm - 7pm</t>
+          <t>28/12/20 6.15pm - 6.30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -567,17 +567,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Burwood East</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kmart Burwood, 172 Burwood Highway</t>
+          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/20 6.15pm - 6.30pm</t>
+          <t>28/12/20 12pm - 12.30pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -594,61 +594,61 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
+          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>28/12/20 12pm - 12.30pm</t>
+          <t>30/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/12/20 2:30pm-2:45pm</t>
+          <t>30/12/20 11.40am-1.40pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>29/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>29/12/20 2:00pm-2:30pm</t>
+          <t>28/12/2020 2:30pm-2:50pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
+          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/2020 2:30pm-2:50pm</t>
+          <t>22/12/20 6.45pm - 7pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -704,12 +704,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
+          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22/12/20 6.45pm - 7pm</t>
+          <t>30/12/20, 3.30pm - 3.45pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -726,12 +726,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
+          <t>Coles, Westfield Southland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30/12/21, 3.30pm - 3.45pm</t>
+          <t>22/12/20 11:50am-12:10pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -748,17 +748,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coles, Westfield Southland</t>
+          <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22/12/20 11:50am-12:10pm</t>
+          <t>22/12/20 12.15pm - 12.45pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
@@ -770,17 +770,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
+          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22/12/20 12.15pm - 12.45pm</t>
+          <t>22/12/2020 3:50pm-4:05pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -792,12 +792,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>22/12/2020 3:50pm-4:05pm</t>
+          <t>22/12/20 6.30pm - 6.45pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22/12/20 6.30pm - 6.45pm</t>
+          <t>28/12/20 2.30pm-3pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -836,12 +836,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>28/12/20 2.30pm-3pm</t>
+          <t>22/12/2020 3:30pm-3:50pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -858,17 +858,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22/12/2020 3:30pm-3:50pm</t>
+          <t>22/12/20 10.30am - 11am</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
@@ -880,61 +880,61 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
+          <t>Specsavers, 1004-1005 Westfield Southland</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22/12/20 10.30am - 11am</t>
+          <t>22/12/20 11:00am-1145am</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Chirnside Park</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Specsavers, 1004-1005 Westfield Southland</t>
+          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22/12/20 11:00am-1145am</t>
+          <t>31/12/2020 10:00am - 10:15am</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at venue</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chirnside Park</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
+          <t>Kmart - 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>31/12/2020 10:00am - 10:15am</t>
+          <t>30/12/20 7pm - 7.30pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case shopped at venue</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Kmart - 2107 Dandenong Road, Clayton</t>
+          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30/12/20 7pm - 7.30pm</t>
+          <t>30/12/20 7.30pm - 745pm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -963,86 +963,86 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Emerald</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
+          <t>Lakeside Paddle Boats, Emerald Lake Park</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30/12/20 7.30pm - 745pm</t>
+          <t>31/12/20 3:30pm - 5:30pm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case visited venue</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Emerald</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Puffing Billy Railway Lakeside Station, Emerald Lake Rd, Emerald</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>31/12/20 3:00pm - 5:00pm</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>31/12/20  3.00pm-3.15pm</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Case shopped</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1114,12 +1114,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sikh Temple Keysborough  200 Perry Road, Keysborough</t>
+          <t>Sikh Temple Keysborough  198-206 Perry Road, Keysborough</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1/01/21 2:00pm-5:00pm</t>
+          <t>1/01/21 3:00pm-5:00pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,22 +1109,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Keysborough</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sikh Temple Keysborough  198-206 Perry Road, Keysborough</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1/01/21 3:00pm-5:00pm</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
@@ -1158,17 +1158,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
@@ -1180,61 +1180,61 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>23/12/2- 11:00pm-11:30pm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended Federation Square</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23/12/2- 11:00pm-11:30pm</t>
+          <t>23/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Case attended Federation Square</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23/12/20 11:00am-11:30am</t>
+          <t>29/12/20 07:30am-08:00am</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1290,19 +1290,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1312,30 +1308,34 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>23/12/20 2:45pm-3:05pm</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
+          <t>30/12/20 10:45am-12:15pm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
+          <t>30/12/20 4:00m- 5:50pm</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1369,22 +1369,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1413,66 +1413,66 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>31/12/20 3pm - 3.15pm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>31/12/20 3pm - 3.15pm</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Takeaway coffee</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>30/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case shopped for 30 minutes</t>
         </is>
       </c>
     </row>
@@ -1484,77 +1484,33 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Case shopped for 30 minutes</t>
-        </is>
-      </c>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Wonthaggi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Springvale</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>IKEA Springvale, 917 Princes Hwy</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>29/12/20 4pm - 6pm</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Case shopped at store and dined at cafe</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Wonthaggi</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,20 +1497,42 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>Southern Cross</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Metro trains - Mernda line</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>28/12/2020 14:30 - 14:45</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Caught train from Southern Cross to Victoria Park station</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,64 +963,64 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Emerald</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Lakeside Paddle Boats, Emerald Lake Park</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>31/12/20 3:30pm - 5:30pm</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>31/12/20  3.00pm-3.15pm</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Case shopped</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1030,79 +1030,79 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/20  3.00pm-3.15pm</t>
+          <t>31/12/20 2pm-3pm</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31/12/20 2pm-3pm</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Case shopped at store</t>
-        </is>
-      </c>
+          <t>28/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>28/12/20 2:00pm-2:30pm</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>30/12/20 6:15am-6:30am</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -1114,17 +1114,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
@@ -1158,61 +1158,61 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>23/12/2- 11:00pm-11:30pm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended Federation Square</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>23/12/2- 11:00pm-11:30pm</t>
+          <t>23/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Case attended Federation Square</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23/12/20 11:00am-11:30am</t>
+          <t>29/12/20 07:30am-08:00am</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1268,19 +1268,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1290,30 +1286,34 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>23/12/20 2:45pm-3:05pm</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
+          <t>30/12/20 10:45am-12:15pm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
+          <t>30/12/20 4:00m- 5:50pm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1347,22 +1347,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1391,66 +1391,66 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>31/12/20 3pm - 3.15pm</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>31/12/20 3pm - 3.15pm</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Takeaway coffee</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>30/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case shopped for 30 minutes</t>
         </is>
       </c>
     </row>
@@ -1462,77 +1462,55 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Case shopped for 30 minutes</t>
-        </is>
-      </c>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Southern Cross</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Metro trains - Mernda line</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>28/12/2020 14:30 - 14:45</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Caught train from Southern Cross to Victoria Park station</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Southern Cross</t>
+          <t>Wonthaggi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Metro trains - Mernda line</t>
+          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>28/12/2020 14:30 - 14:45</t>
+          <t>28/12/20 1:30pm-2.30pm</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
-        <is>
-          <t>Caught train from Southern Cross to Victoria Park station</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Wonthaggi</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>28/12/20 1:30pm-2.30pm</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -413,39 +413,39 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bentleigh</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Il Centro Deli  5/284/292 Centre Rd, Bentleigh VIC 3204</t>
+          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22/12/20 12:00pm-12:30pm</t>
+          <t>30/12/20 5:30pm-5:55pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Black Rock</t>
+          <t>Box Hill South</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
+          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 5:30pm-5:55pm</t>
+          <t>30/12/20 12:00pm-12:40pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -457,22 +457,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Box Hill South</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
+          <t>Brighton Beach  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>30/12/20 12:00pm-12:40pm</t>
+          <t>26/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>26/12/20 12:00pm-3:00pm</t>
+          <t>29/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -501,22 +501,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Burwood East</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brighton Beach  Brighton, VIC 3186</t>
+          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-3:00pm</t>
+          <t>28/12/20 6.30pm-7pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Case attended beach</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -528,12 +528,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
+          <t>Kmart Burwood, 172 Burwood Highway</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28/12/20 6.30pm - 7pm</t>
+          <t>28/12/20 6.15pm-6.30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -545,17 +545,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Burwood East</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kmart Burwood, 172 Burwood Highway</t>
+          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/12/20 6.15pm - 6.30pm</t>
+          <t>28/12/20 12:00pm-12.30pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -572,61 +572,61 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
+          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>28/12/20 12pm - 12.30pm</t>
+          <t>30/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30/12/20 2:30pm-2:45pm</t>
+          <t>30/12/20 11.40am-1.40pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>29/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -638,12 +638,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/12/20 2:00pm-2:30pm</t>
+          <t>28/12/20 2:30pm-2:50pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
+          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>28/12/2020 2:30pm-2:50pm</t>
+          <t>30/12/20, 3:30pm-3:45pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bodero Southland Shopping Centre, 1239 Nepean Hwy</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>22/12/20 6.45pm - 7pm</t>
+          <t>28/12/20 2.30pm-3:00pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,193 +699,185 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Chirnside Park</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
+          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30/12/20, 3.30pm - 3.45pm</t>
+          <t>31/12/20 10:00am-10:15am</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at venue</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coles, Westfield Southland</t>
+          <t>Kmart - 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22/12/20 11:50am-12:10pm</t>
+          <t>30/12/20 7:00pm-7.30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cotton On, Southland Shopping Centre 1239 Nepean Hwy</t>
+          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22/12/20 12.15pm - 12.45pm</t>
+          <t>30/12/20 7.30pm-7:45pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case visited venue</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Honey Birdette Southland  Shop 2209/1239, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22/12/2020 3:50pm-4:05pm</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>22/12/20 6.30pm - 6.45pm</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28/12/20 2.30pm-3pm</t>
+          <t>31/12/20  3:00pm-3:15pm</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Mecca Southland  Shop 2011/2013, Southland Shopping Centre, Cheltenham VIC 3192</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22/12/2020 3:30pm-3:50pm</t>
+          <t>31/12/20 2:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Myer, Southland Shopping Centre 1239 Nepean Hwy</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22/12/20 10.30am - 11am</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Case visited venue</t>
-        </is>
-      </c>
+          <t>28/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Specsavers, 1004-1005 Westfield Southland</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>22/12/20 11:00am-1145am</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -897,185 +889,193 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chirnside Park</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>31/12/2020 10:00am - 10:15am</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case shopped at venue</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kmart - 2107 Dandenong Road, Clayton</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/12/20 7pm - 7.30pm</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30/12/20 7.30pm - 745pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Culture Kings Melbourne  19-25 Russell Street, Melbourne</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>30/12/20, 1:00pm-1:30pm</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Case Shopped</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Melbourne</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
+          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>31/12/20  3.00pm-3.15pm</t>
+          <t>23/12/2- 11:00pm-11:30pm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended Federation Square</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>31/12/20 2pm-3pm</t>
+          <t>23/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>28/12/20 2:00pm-2:30pm</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>29/12/20 7:30am-08:00am</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1087,83 +1087,79 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Case hired a boat</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Mentone</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>23/12/20 2:45pm-3:05pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>30/12/20 10:45am-12:15pm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>30/12/20 4:00pm- 5:50pm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1175,342 +1171,170 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>23/12/2- 11:00pm-11:30pm</t>
+          <t>23/12/20 8:00am-2:00pm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Case attended Federation Square</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>23/12/20 11:00am-11:30am</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>29/12/20 07:30am-08:00am</t>
+          <t>31/12/20 3:00pm - 3:15pm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>30/12/20 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Southern Cross</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Metro trains - Mernda line</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
+          <t>28/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Caught train from Southern Cross to Victoria Park station</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Wonthaggi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>COSTCO Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>30/12/20 4:00m- 5:50pm</t>
+          <t>28/12/20 1:30pm-2:30pm</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Mordialloc</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>23/12/20 8:00am-2:00pm</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Case attended course</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mordialloc</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Case attended course</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Mount Martha</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>31/12/20 3pm - 3.15pm</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Takeaway coffee</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Mount Waverley</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Case shopped for half an hour</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Oakleigh</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>30/12/20 11:00am-11:30am</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Case shopped for 30 minutes</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Oakleigh</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Southern Cross</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Metro trains - Mernda line</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>28/12/2020 14:30 - 14:45</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Caught train from Southern Cross to Victoria Park station</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Wonthaggi</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>28/12/20 1:30pm-2.30pm</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,22 +611,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Chadstone</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Chadstone Shopping Centre, Princes Highway</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>29/12/20 2:00pm-2:30pm</t>
+          <t>26/12/20 6am-1:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case did not attend during infectious period but may have acquired their illness here. Case visited Culture Kings, Huffer, JD Sports, Jay Jays, H&amp;M, Uniqlo, Myer, Superdry, Footlocker, Dumplings Plus</t>
         </is>
       </c>
     </row>
@@ -638,12 +638,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>28/12/20 2:30pm-2:50pm</t>
+          <t>29/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
+          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>30/12/20, 3:30pm-3:45pm</t>
+          <t>28/12/20 2:30pm-2:50pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>28/12/20 2.30pm-3:00pm</t>
+          <t>30/12/20, 3:30pm-3:45pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,44 +699,44 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chirnside Park</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>31/12/20 10:00am-10:15am</t>
+          <t>28/12/20 2.30pm-3:00pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case shopped at venue</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Chirnside Park</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Kmart - 2107 Dandenong Road, Clayton</t>
+          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>30/12/20 7:00pm-7.30pm</t>
+          <t>31/12/20 10:00am-10:15am</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped at venue</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
+          <t>Kmart - 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/20 7.30pm-7:45pm</t>
+          <t>30/12/20 7:00pm-7.30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -765,64 +765,64 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>30/12/20 7.30pm-7:45pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>28/12/20 12:00pm-2:00pm</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>31/12/20  3:00pm-3:15pm</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Case shopped</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -832,79 +832,79 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/20 2:00pm-3:00pm</t>
+          <t>31/12/20  3:00pm-3:15pm</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28/12/20 2:00pm-2:30pm</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>31/12/20 2:00pm-3:00pm</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Case shopped at store</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lakes Entrance</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
+          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>29/12/20 11:15am-12:15pm</t>
+          <t>30/12/20 6:15am-6:30am</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Case hired a boat</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -916,17 +916,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Blue Riviera Hire Boats  Marine Parade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>30/12/20 5:00pm-6:30pm</t>
+          <t>29/12/20 11:15am-12:15pm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Case attended outside premises</t>
+          <t>Case hired a boat</t>
         </is>
       </c>
     </row>
@@ -938,17 +938,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
+          <t>Central Hotel Lakes Entrance  321 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>30/12/20 11:15am-11:20am</t>
+          <t>30/12/20 5:00pm-6:30pm</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Case picked up takeaway</t>
+          <t>Case attended outside premises</t>
         </is>
       </c>
     </row>
@@ -960,39 +960,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
+          <t>Darcey Annas Beach Cafe Kiosk Gift Shop Gallery  426 Main Beach Walk Surf Life Saving, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>30/12/20 6:00pm-6:15pm</t>
+          <t>30/12/20 11:15am-11:20am</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case picked up takeaway</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Lakes Entrance</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Culture Kings Melbourne  19-25 Russell Street, Melbourne</t>
+          <t>Woolworths Lakes Entrance 371 Esplanade, Lakes Entrance VIC 3909</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>30/12/20, 1:00pm-1:30pm</t>
+          <t>30/12/20 6:00pm-6:15pm</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Case Shopped</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Federation Square  Swanston &amp; Flinders Streets, Melbourne VIC 3000</t>
+          <t>Culture Kings Melbourne  19-25 Russell Street, Melbourne</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>23/12/2- 11:00pm-11:30pm</t>
+          <t>30/12/20, 1:00pm-1:30pm</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Case attended Federation Square</t>
+          <t>Case Shopped</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>23/12/20 11:00am-11:30am</t>
+          <t>29/12/20 7:30am-08:00am</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>29/12/20 7:30am-08:00am</t>
+          <t>31/12/20 08:00am-08:30am</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1070,52 +1070,52 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bunnings Mentone  23-27 Nepean Hwy, Mentone VIC 3194</t>
+          <t>Mentone/Parkdale Beach</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>31/12/20 08:00am-08:30am</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>27/12/20 10:00am-4:30pm</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mentone/Parkdale Beach</t>
+          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>27/12/20 10:00am-4:30pm</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>30/12/20 10:45am-12:15pm</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mentone</t>
+          <t>Moorabbin</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Woolworths Mentone  105-111 Balcombe Road, Mentone VIC 3194</t>
+          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>23/12/20 2:45pm-3:05pm</t>
+          <t>30/12/20 4:00pm- 5:50pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1127,214 +1127,170 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
+          <t>28/12/20 12:00pm-6:00pm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30/12/20 4:00pm- 5:50pm</t>
+          <t>31/12/20 3:00pm - 3:15pm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>23/12/20 8:00am-2:00pm</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>30/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped for 30 minutes</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>31/12/20 3:00pm - 3:15pm</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Takeaway coffee</t>
-        </is>
-      </c>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>MCG, Brunton Avenue</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>27/12/20 12:30pm - 3:30pm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Case did not attend during infectious period but may have acquired their illness here</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Southern Cross</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Metro trains - Mernda line</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
+          <t>28/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Caught train from Southern Cross to Victoria Park station</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Wonthaggi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Southern Cross</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Metro trains - Mernda line</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>28/12/20 2:30pm-2:45pm</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Caught train from Southern Cross to Victoria Park station</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Wonthaggi</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
           <t>28/12/20 1:30pm-2:30pm</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Kmart- shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -721,44 +721,44 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chirnside Park</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
+          <t>Woolworths Southland, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/20 10:00am-10:15am</t>
+          <t>31/12/20 6:00pm - 6:30pm</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case shopped at venue</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Chirnside Park</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kmart - 2107 Dandenong Road, Clayton</t>
+          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>30/12/20 7:00pm-7.30pm</t>
+          <t>31/12/20 10:00am-10:15am</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped at venue</t>
         </is>
       </c>
     </row>
@@ -770,12 +770,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
+          <t>Kmart - 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30/12/20 7.30pm-7:45pm</t>
+          <t>30/12/20 7:00pm-7.30pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -787,64 +787,64 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
+          <t>30/12/20 7.30pm-7:45pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>28/12/20 12:00pm-2:00pm</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>31/12/20  3:00pm-3:15pm</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Case shopped</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -854,59 +854,59 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/20 2:00pm-3:00pm</t>
+          <t>31/12/20  3:00pm-3:15pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>28/12/20 2:00pm-2:30pm</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>31/12/20 2:00pm-3:00pm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Case shopped at store</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hallam</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Coles Hallam  2 Princes Domain Drive, Hallam VIC 3803</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>30/12/20 6:15am-6:30am</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Case shopped in store</t>
-        </is>
-      </c>
+          <t>28/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30/12/20 10:45am-12:15pm</t>
+          <t>30/12/20 4:00pm- 5:50pm</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1105,194 +1105,128 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Moorabbin</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Costco Moorabbin  8 Chifley Drive, Moorabbin Airport VIC 3194</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>30/12/20 4:00pm- 5:50pm</t>
+          <t>31/12/20 3:00pm - 3:15pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mordialloc</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Woodlands Golf Club  109 White Street Mordialloc VIC 3195</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-6:00pm</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>31/12/20 3:00pm - 3:15pm</t>
+          <t>30/12/20 11:00am-11:30am</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Takeaway coffee</t>
+          <t>Case shopped for 30 minutes</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Case shopped for half an hour</t>
-        </is>
-      </c>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Richmond</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>MCG, Brunton Avenue</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
+          <t>27/12/20 12:30pm - 3:30pm</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Case did not attend during infectious period but may have acquired their illness here</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Southern Cross</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Metro trains - Mernda line</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Richmond</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MCG, Brunton Avenue</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>27/12/20 12:30pm - 3:30pm</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Case did not attend during infectious period but may have acquired their illness here</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Southern Cross</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Metro trains - Mernda line</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
           <t>28/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>Caught train from Southern Cross to Victoria Park station</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Wonthaggi</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Wonthaggi Plaza Shopping centre  2 Biggs Drive, Wonthaggi VIC 3995</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>28/12/20 1:30pm-2:30pm</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Kmart- shopped for 15 mins</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,17 +391,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bentleigh</t>
+          <t>Black Rock</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coles - Bentleigh  5/7 Vickery St, Bentleigh</t>
+          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24/12/20 12:30pm-1:00pm</t>
+          <t>30/12/20 5:30pm-5:55pm</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -413,17 +413,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Black Rock</t>
+          <t>Box Hill South</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Woolworths Metro  40 Bluff Road, Black Rock VIC 3193</t>
+          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>30/12/20 5:30pm-5:55pm</t>
+          <t>30/12/20 12:00pm-12:40pm</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -435,22 +435,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Box Hill South</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bunnings  259 Middleborough Road, Box Hill South VIC 3128</t>
+          <t>Brighton Beach  Brighton, VIC 3186</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>30/12/20 12:00pm-12:40pm</t>
+          <t>26/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended beach</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>26/12/20 12:00pm-3:00pm</t>
+          <t>29/12/20 12:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -479,22 +479,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Burwood East</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brighton Beach  Brighton, VIC 3186</t>
+          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>29/12/20 12:00pm-3:00pm</t>
+          <t>28/12/20 6.30pm-7pm</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Case attended beach</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Coles Burwood, Burwood Highway &amp; Blackburn Road</t>
+          <t>Kmart Burwood, 172 Burwood Highway</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28/12/20 6.30pm-7pm</t>
+          <t>28/12/20 6.15pm-6.30pm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -523,17 +523,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Burwood East</t>
+          <t>Camberwell</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kmart Burwood, 172 Burwood Highway</t>
+          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28/12/20 6.15pm-6.30pm</t>
+          <t>28/12/20 12:00pm-12.30pm</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -550,83 +550,83 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Coles Middle Camberwell, 751 Riversdale Road</t>
+          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-12.30pm</t>
+          <t>30/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Camberwell</t>
+          <t>Cape Schank</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fu Lin Asian Grocery Supermarket  1397 Toorak Road, Camberwell VIC 3124</t>
+          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30/12/20 2:30pm-2:45pm</t>
+          <t>30/12/20 11.40am-1.40pm</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Chadstone</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>National Golf Club  The Cups Drive, Cape Schanck VIC 3939</t>
+          <t>Chadstone Shopping Centre, Princes Highway</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>30/12/20 11.40am-1.40pm</t>
+          <t>26/12/20 6am-1:30pm</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Case attended course</t>
+          <t>Case did not attend during infectious period but may have acquired their illness here. If you attended Chadstone Shopping Centre but did not attend to any of the acquisition site stores listed above, monitor for symptoms - If symptoms develop, immediately get tested and isolate until you receive a negative result.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Chadstone</t>
+          <t>Cheltenham</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Chadstone Shopping Centre, Princes Highway</t>
+          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>26/12/20 6am-1:30pm</t>
+          <t>29/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Case did not attend during infectious period but may have acquired their illness here. Case visited Culture Kings, Huffer, JD Sports, Jay Jays, H&amp;M, Uniqlo, Myer, Superdry, Footlocker, Dumplings Plus</t>
+          <t>Case shopped in store</t>
         </is>
       </c>
     </row>
@@ -638,12 +638,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aldi Cheltenham  280/282 Bay Road, Cheltenham VIC 3192</t>
+          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>29/12/20 2:00pm-2:30pm</t>
+          <t>28/12/20 2:30pm-2:50pm</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -660,12 +660,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Angus and Cootes Jeweller  Southland Shopping Centre, Shop 2096/1239, Nepean Hwy, Cheltenham VIC 3192</t>
+          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>28/12/20 2:30pm-2:50pm</t>
+          <t>30/12/20, 3:30pm-3:45pm</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -682,12 +682,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chemist Warehouse Cheltenham, 326/330 Charman Rd</t>
+          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>30/12/20, 3:30pm-3:45pm</t>
+          <t>28/12/20 2.30pm-3:00pm</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -704,61 +704,61 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Kmart Southland Shopping Centre, 1239 Nepean Highway</t>
+          <t>Woolworths Southland, 1239 Nepean Highway</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>28/12/20 2.30pm-3:00pm</t>
+          <t>31/12/20 6:00pm - 6:30pm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Case shopped in store</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cheltenham</t>
+          <t>Chirnside Park</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Woolworths Southland, 1239 Nepean Highway</t>
+          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>31/12/20 6:00pm - 6:30pm</t>
+          <t>31/12/20 10:00am-10:15am</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>Case shopped at venue</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chirnside Park</t>
+          <t>Clayton</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Coles  239-241 Maroondah Hwy, Chirnside Park</t>
+          <t>Kmart - 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>31/12/20 10:00am-10:15am</t>
+          <t>30/12/20 7:00pm-7.30pm</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Case shopped at venue</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
@@ -770,12 +770,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kmart - 2107 Dandenong Road, Clayton</t>
+          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>30/12/20 7:00pm-7.30pm</t>
+          <t>30/12/20 7.30pm-7:45pm</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -787,64 +787,64 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Clayton</t>
+          <t>Forest Hill</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Woolworths - M-City, 2107 Dandenong Road, Clayton</t>
+          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>30/12/20 7.30pm-7:45pm</t>
+          <t>28/12/20 12:00pm-2:00pm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Case shopped at store</t>
+          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Forest Hill</t>
+          <t>Fountain Gate Shopping Centre</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Forest Hill Chase Shopping Centre 270 Canterbury Rd, Forest Hill VIC 3131</t>
+          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>28/12/20 12:00pm-2:00pm</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1210hrs Food court 30min; 1250hrs TKMaxx 15min; 1310hrs Target 20min; 1340hrs Woolworths 15min</t>
-        </is>
-      </c>
+          <t>26/12/20 9:00am-11:00am</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fountain Gate Shopping Centre</t>
+          <t>Frankston</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kmart, Big W, Target, Millers, King of Gifts, Lo Costa  25-55 Overland Drive, Narre Warren VIC 3805</t>
+          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>26/12/20 9:00am-11:00am</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>31/12/20  3:00pm-3:15pm</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Case shopped</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -854,59 +854,59 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Ishka, Shop G18b, 28 Beach St  Bayside Shopping Centre</t>
+          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>31/12/20  3:00pm-3:15pm</t>
+          <t>31/12/20 2:00pm-3:00pm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Case shopped</t>
+          <t>Case shopped at store</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Frankston</t>
+          <t>Glen Waverley</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TK Maxx Frankston, 10 Shannon Street, Bayside Shopping Centre</t>
+          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>31/12/20 2:00pm-3:00pm</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Case shopped at store</t>
-        </is>
-      </c>
+          <t>28/12/20 2:00pm-2:30pm</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Glen Waverley</t>
+          <t>Hallam</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mocha Jos  87 Kingsway, Glen Waverley VIC 3150</t>
+          <t>Coles Hallam, 2 Princes Domain Drive, Hallam, VIC 3803</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>28/12/20 2:00pm-2:30pm</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>30/12/20 6:15am - 6:30am</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Case shopped in store</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>30/12/20 4:00pm- 5:50pm</t>
+          <t>30/12/20 10:45am - 12:15pm and 4:00pm- 5:50pm</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1105,66 +1105,66 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mount Martha</t>
+          <t>Mordialloc</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
+          <t>Woodlands Golf Club, 109 White Street, Mordialloc, VIC 3195</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31/12/20 3:00pm - 3:15pm</t>
+          <t>28/12/20 12:00pm - 6:00pm</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Takeaway coffee</t>
+          <t>Case attended course</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mount Waverley</t>
+          <t>Mount Martha</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
+          <t>Mount Martha Fine Foods, 34 Lochiel Ave</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30/12/20 2:00pm-2:30pm</t>
+          <t>31/12/20 3:00pm - 3:15pm</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Case shopped for half an hour</t>
+          <t>Takeaway coffee</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Oakleigh</t>
+          <t>Mount Waverley</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
+          <t>Ritchies IGA  283 Stephensons Road, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>30/12/20 11:00am-11:30am</t>
+          <t>30/12/20 2:00pm-2:30pm</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Case shopped for 30 minutes</t>
+          <t>Case shopped for half an hour</t>
         </is>
       </c>
     </row>
@@ -1176,57 +1176,101 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
+          <t>Bunnings Oakleigh  1041 Centre Road, Oakleigh South</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>28/12/20 7:00pm-7:10pm</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>30/12/20 11:00am-11:30am</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Case shopped for 30 minutes</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Oakleigh</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCG, Brunton Avenue</t>
+          <t>Katialo restaurant  8 Eaton Mall, Oakleigh VIC 3166</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>27/12/20 12:30pm - 3:30pm</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Case did not attend during infectious period but may have acquired their illness here</t>
-        </is>
-      </c>
+          <t>28/12/20 7:00pm-7:10pm</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>Richmond</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MCG, Brunton Avenue</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>27/12/20 12:30pm - 3:30pm</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Case did not attend during infectious period but may have acquired their illness here</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
           <t>Southern Cross</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Metro trains - Mernda line</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>28/12/20 2:30pm-2:45pm</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>Caught train from Southern Cross to Victoria Park station</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Wonthaggi</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Wonthaggi Plaza Shopping Centre, 2 Biggs Drive, Wonthaggi, VIC 3995</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>28/12/20 1:30pm - 2:30pm</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Kmart - shopped for 15 mins</t>
         </is>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cape Schank</t>
+          <t>Cape Schanck</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1233,42 +1233,64 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Southern Cross</t>
+          <t>Ringwood</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Metro trains - Mernda line</t>
+          <t>Block 7 Dumplings, 171 - 175 Maroondah Highway</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>28/12/20 2:30pm-2:45pm</t>
+          <t>29/12/20 8:10pm - 8:45pm</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Caught train from Southern Cross to Victoria Park station</t>
+          <t>Case attended store</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>Southern Cross</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Metro trains - Mernda line</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>28/12/20 2:30pm-2:45pm</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Caught train from Southern Cross to Victoria Park station</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>Wonthaggi</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Wonthaggi Plaza Shopping Centre, 2 Biggs Drive, Wonthaggi, VIC 3995</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>28/12/20 1:30pm - 2:30pm</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Kmart - shopped for 15 mins</t>
         </is>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_2.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,20 +391,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Broadmeadows</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Broadmeadows Central  (West side of shopping centre, fresh fruit and meat section)  1099/1168 Pascoe Vale Rd  Broadmeadows VIC 3047</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>12:15pm - 1:15pm  9/2/2021</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Case attended fresh fruit and meat section on the west side of the shopping centre</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>Hoppers Crossing</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Caltex Woolworths  50 Old Geelong Rd  Hoppers Crossing VIC 3029</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>6.40am - 7.15am  8/02/21</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>6.40am - 7.15am  8/2/21</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>Case attended venue</t>
         </is>
